--- a/SuggestTopics.xlsx
+++ b/SuggestTopics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysp-cloud.kp.org/personal/li-chieh_wei_kp_org/Documents/Documents/Chatbot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{34580EAE-D6E9-4721-A325-61930992A0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A021AACB-3938-442F-9DC8-0A447699B650}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{34580EAE-D6E9-4721-A325-61930992A0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{561CEBBE-5F2A-4E02-A08B-7AB26AE85DBF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F0386DEA-9A68-4C2D-83C0-FFD1DFE0FB48}"/>
   </bookViews>
@@ -41,56 +41,50 @@
     <t>Here is the current access review calendar</t>
   </si>
   <si>
-    <t>Access review calendar.
+    <t>Here is the application contact information.</t>
+  </si>
+  <si>
+    <t>Here is the information for review reassignment.</t>
+  </si>
+  <si>
+    <t>Here is the information for High Risk Level.</t>
+  </si>
+  <si>
+    <t>Here is the information regarding entitlement description.</t>
+  </si>
+  <si>
+    <t>Here is the information for AD groups.</t>
+  </si>
+  <si>
+    <t>Here is the information for query scripts.</t>
+  </si>
+  <si>
+    <t>Here is the information for ACL sFTP.</t>
+  </si>
+  <si>
+    <t>Where can I find access review calendar?
 When the next review kick off?</t>
   </si>
   <si>
-    <t>Here is the application contact information.</t>
-  </si>
-  <si>
-    <t>Application contact.
-Contact inforation.
-Applicaton owner.
-BAO.
-BAOD.</t>
-  </si>
-  <si>
-    <t>How to reassign reviews.</t>
-  </si>
-  <si>
-    <t>Risk level.</t>
-  </si>
-  <si>
-    <t>Entitlement description.</t>
-  </si>
-  <si>
-    <t>How to add new AD group to my application.
-How to delete AD group from my application.</t>
-  </si>
-  <si>
-    <t>How to get data query document</t>
-  </si>
-  <si>
-    <t>How to upload ACL file.
-sFTP issues.</t>
-  </si>
-  <si>
-    <t>Here is the information for review reassignment.</t>
-  </si>
-  <si>
-    <t>Here is the information for High Risk Level.</t>
-  </si>
-  <si>
-    <t>Here is the information regarding entitlement description.</t>
-  </si>
-  <si>
-    <t>Here is the information for AD groups.</t>
-  </si>
-  <si>
-    <t>Here is the information for query scripts.</t>
-  </si>
-  <si>
-    <t>Here is the information for ACL sFTP.</t>
+    <t>Where can I find application contact.</t>
+  </si>
+  <si>
+    <t>What's entitlement risk level?</t>
+  </si>
+  <si>
+    <t>How to reassign reviews?</t>
+  </si>
+  <si>
+    <t>How to update entitlement description?</t>
+  </si>
+  <si>
+    <t>How to update AD group to my application?</t>
+  </si>
+  <si>
+    <t>How to get data query document?</t>
+  </si>
+  <si>
+    <t>How to upload ACL file?</t>
   </si>
 </sst>
 </file>
@@ -448,77 +442,77 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="64.109375" customWidth="1"/>
     <col min="2" max="2" width="32.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/SuggestTopics.xlsx
+++ b/SuggestTopics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysp-cloud.kp.org/personal/li-chieh_wei_kp_org/Documents/Documents/Chatbot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{34580EAE-D6E9-4721-A325-61930992A0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{561CEBBE-5F2A-4E02-A08B-7AB26AE85DBF}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{34580EAE-D6E9-4721-A325-61930992A0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8A22FB1-6E16-4320-B4CA-D90139A09281}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F0386DEA-9A68-4C2D-83C0-FFD1DFE0FB48}"/>
   </bookViews>
@@ -62,10 +62,6 @@
     <t>Here is the information for ACL sFTP.</t>
   </si>
   <si>
-    <t>Where can I find access review calendar?
-When the next review kick off?</t>
-  </si>
-  <si>
     <t>Where can I find application contact.</t>
   </si>
   <si>
@@ -85,6 +81,9 @@
   </si>
   <si>
     <t>How to upload ACL file?</t>
+  </si>
+  <si>
+    <t>Where can I find access review calendar?</t>
   </si>
 </sst>
 </file>
@@ -442,18 +441,18 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="64.109375" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -461,7 +460,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -469,7 +468,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -477,7 +476,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -485,7 +484,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -493,7 +492,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -501,7 +500,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -509,7 +508,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>

--- a/SuggestTopics.xlsx
+++ b/SuggestTopics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysp-cloud.kp.org/personal/li-chieh_wei_kp_org/Documents/Documents/Chatbot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{34580EAE-D6E9-4721-A325-61930992A0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8A22FB1-6E16-4320-B4CA-D90139A09281}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{34580EAE-D6E9-4721-A325-61930992A0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E9F8721-C6A7-4C5A-BFA8-85FBC2F33989}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F0386DEA-9A68-4C2D-83C0-FFD1DFE0FB48}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>Here is the information for ACL sFTP.</t>
   </si>
   <si>
-    <t>Where can I find application contact.</t>
-  </si>
-  <si>
     <t>What's entitlement risk level?</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>Where can I find access review calendar?</t>
+  </si>
+  <si>
+    <t>Where can I find application contact?</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,7 +452,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
